--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_6_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_6_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9030.591998064692</v>
+        <v>1797087.807614872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9030.591998064692</v>
+        <v>1797087.807614872</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6327.558164931213</v>
+        <v>379653.4898958727</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6327.558164931213</v>
+        <v>379653.4898958727</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958853190.2850705</v>
+        <v>39039854.63209085</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8557.388066815936</v>
+        <v>873633.5814941308</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16603.17557488084</v>
+        <v>1660744.231702002</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24648.96308294572</v>
+        <v>2447854.881909874</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33083.01323904856</v>
+        <v>3209848.80005104</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41221.23352940679</v>
+        <v>3996959.450258912</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49359.45381976501</v>
+        <v>4784070.100466783</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57897.60032718038</v>
+        <v>5586584.360454207</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66358.34176032666</v>
+        <v>6373695.010662076</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>75060.64968428978</v>
+        <v>7138540.42716442</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83523.35026606612</v>
+        <v>7925410.358494971</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>91984.09169921235</v>
+        <v>8712521.008702846</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100444.8331323586</v>
+        <v>9499631.658910723</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>108905.5745655048</v>
+        <v>10286742.3091186</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>117366.315998651</v>
+        <v>11073852.95932648</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>126207.4648287623</v>
+        <v>11798269.31193038</v>
       </c>
     </row>
   </sheetData>
